--- a/planilha_padrao.xlsx
+++ b/planilha_padrao.xlsx
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G3" s="7">
         <v>20</v>
@@ -714,7 +714,7 @@
         <v>100</v>
       </c>
       <c r="J3" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K3" s="7">
         <v>4</v>
@@ -809,7 +809,7 @@
         <v>100</v>
       </c>
       <c r="J4" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K4" s="7">
         <v>4</v>
@@ -904,7 +904,7 @@
         <v>100</v>
       </c>
       <c r="J5" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K5" s="7">
         <v>4</v>
@@ -999,7 +999,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K6" s="7">
         <v>4</v>
@@ -1094,7 +1094,7 @@
         <v>100</v>
       </c>
       <c r="J7" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7">
         <v>4</v>
@@ -1189,7 +1189,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K8" s="7">
         <v>4</v>
@@ -1284,7 +1284,7 @@
         <v>100</v>
       </c>
       <c r="J9" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K9" s="7">
         <v>4</v>
@@ -1379,7 +1379,7 @@
         <v>100</v>
       </c>
       <c r="J10" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K10" s="7">
         <v>4</v>
@@ -1474,7 +1474,7 @@
         <v>100</v>
       </c>
       <c r="J11" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K11" s="7">
         <v>4</v>
@@ -1569,7 +1569,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K12" s="7">
         <v>4</v>
